--- a/biology/Botanique/Didymoglossum_krausii/Didymoglossum_krausii.xlsx
+++ b/biology/Botanique/Didymoglossum_krausii/Didymoglossum_krausii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum kraussii est une espèce de fougères de la famille des Hyménophyllacées. 
 Synonymes : Trichomanes krausii Hook. &amp; Grev., Hemiphlebium krausii (Hook. &amp; Grev.) Prantl.
@@ -488,7 +500,7 @@
 Une variété est reconnue :
 Didymoglossum krausii var. subpinnatifida W.Schaffn..
 Une autre variété devrait logiquement être aussi répertoriée :
-Didymoglossum krausii var. crispatum (sur la base de Trichomanes krausii var. crispatum Sodiro)[1]
+Didymoglossum krausii var. crispatum (sur la base de Trichomanes krausii var. crispatum Sodiro)
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum krausii est classé dans le sous-genre Didymoglossum.
 Cette espèce a les caractéristiques suivantes :
@@ -528,7 +542,7 @@
 une nervuration catadrome.
 des sores solitaires aux extrémités des lobes du limbe
 une indusie tubulaire, aux lèvres dont les cellules sont distinctes des tissus du limbe, et dont la bordure est souvent foncée à noire.
-Cette espèce est tétraploïde : elle compte 2 fois 34 paires de chromosomes soit 136 chromosomes[2].
+Cette espèce est tétraploïde : elle compte 2 fois 34 paires de chromosomes soit 136 chromosomes.
 </t>
         </is>
       </c>
@@ -557,7 +571,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, terrestre ou épiphyte, est présente en Amérique tropicale et aux Caraïbes, en particulier en Guadeloupe.
 </t>
